--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:06:00+00:00</t>
+    <t>2024-12-17T21:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:15:49+00:00</t>
+    <t>2024-12-17T21:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:31:39+00:00</t>
+    <t>2024-12-17T21:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Captures laboratory test results for monitoring treatment progress, including sputum microscopy and culture tests for drug-resistant TB cases.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -617,39 +620,41 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -657,26 +662,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -734,112 +739,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -855,10 +860,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -870,13 +875,13 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -927,13 +932,13 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
@@ -944,10 +949,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -955,10 +960,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -970,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1023,13 +1028,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1040,10 +1045,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1051,10 +1056,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1066,13 +1071,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1123,13 +1128,13 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
@@ -1140,10 +1145,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1151,10 +1156,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1166,13 +1171,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1223,13 +1228,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1240,10 +1245,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1251,10 +1256,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1266,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1323,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
@@ -1340,10 +1345,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1351,10 +1356,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1366,13 +1371,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1423,13 +1428,13 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
@@ -1440,10 +1445,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1451,10 +1456,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1466,13 +1471,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1523,13 +1528,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -1540,10 +1545,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1551,10 +1556,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1566,13 +1571,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1623,13 +1628,13 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
@@ -1640,10 +1645,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1651,10 +1656,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -1666,13 +1671,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1723,13 +1728,13 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
@@ -1740,10 +1745,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1751,10 +1756,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -1766,13 +1771,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1823,13 +1828,13 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
@@ -1840,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1851,10 +1856,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -1866,13 +1871,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1899,11 +1904,11 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -1921,13 +1926,13 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -1938,10 +1943,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1949,10 +1954,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -1964,13 +1969,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1997,11 +2002,11 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -2019,13 +2024,13 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -2036,10 +2041,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2047,10 +2052,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2062,13 +2067,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2119,13 +2124,13 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -2136,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2147,10 +2152,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2162,13 +2167,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2195,11 +2200,11 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -2217,13 +2222,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -2234,10 +2239,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2245,10 +2250,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2260,13 +2265,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2293,11 +2298,11 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -2315,13 +2320,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -2332,10 +2337,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2343,10 +2348,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2358,13 +2363,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2415,13 +2420,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -2432,10 +2437,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2443,10 +2448,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -2458,13 +2463,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2515,13 +2520,13 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -2532,10 +2537,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2543,10 +2548,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -2558,13 +2563,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2615,13 +2620,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -2632,10 +2637,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2643,10 +2648,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -2658,13 +2663,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2691,11 +2696,11 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -2713,13 +2718,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -2730,10 +2735,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2741,10 +2746,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -2756,13 +2761,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2813,13 +2818,13 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:48:04+00:00</t>
+    <t>2024-12-17T21:51:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:51:05+00:00</t>
+    <t>2024-12-18T15:37:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T15:37:28+00:00</t>
+    <t>2024-12-18T18:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:58:42+00:00</t>
+    <t>2024-12-19T09:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T09:39:03+00:00</t>
+    <t>2024-12-19T10:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T10:30:07+00:00</t>
+    <t>2024-12-19T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -323,7 +323,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---final-culture-result-vs</t>
+    <t>http://example.org/ValueSet/TBLABFinalCultureResultVS</t>
   </si>
   <si>
     <t>MonitoringLaboratoryResults.microscopyResult</t>
@@ -332,7 +332,7 @@
     <t>TB-LAB - Microscopy result</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---smear-result-vs</t>
+    <t>http://example.org/ValueSet/TBLABSmearResultVS</t>
   </si>
   <si>
     <t>MonitoringLaboratoryResults.sampleId</t>
@@ -347,7 +347,7 @@
     <t>TB-LAB - Sample quality</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---sample-quality-vs</t>
+    <t>http://example.org/ValueSet/TBLABSampleQualityVS</t>
   </si>
   <si>
     <t>MonitoringLaboratoryResults.sampleStatus</t>
@@ -356,7 +356,7 @@
     <t>TB-LAB - Sample status</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---sample-status-vs</t>
+    <t>http://example.org/ValueSet/TBLABSampleStatusVS</t>
   </si>
   <si>
     <t>MonitoringLaboratoryResults.smearSpecimenNumber</t>
@@ -725,7 +725,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.59765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.77734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:33:50+00:00</t>
+    <t>2025-01-06T08:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:12:15+00:00</t>
+    <t>2025-01-06T08:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:51:53+00:00</t>
+    <t>2025-01-06T11:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:12:04+00:00</t>
+    <t>2025-01-06T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:34:04+00:00</t>
+    <t>2025-01-06T11:54:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:54:23+00:00</t>
+    <t>2025-01-06T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T12:46:13+00:00</t>
+    <t>2025-01-06T13:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:14:19+00:00</t>
+    <t>2025-01-06T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:23:20+00:00</t>
+    <t>2025-01-06T13:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:44:48+00:00</t>
+    <t>2025-01-06T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:48:57+00:00</t>
+    <t>2025-01-06T14:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:12:01+00:00</t>
+    <t>2025-01-06T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:45:14+00:00</t>
+    <t>2025-01-07T09:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="124">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:00:06+00:00</t>
+    <t>2025-01-07T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,6 +252,9 @@
   <si>
     <t xml:space="preserve">date
 </t>
+  </si>
+  <si>
+    <t>Execution date</t>
   </si>
   <si>
     <t>MonitoringLaboratoryResults.cultureInLiquidMediaEGMgit</t>
@@ -977,8 +980,12 @@
       <c r="K3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1045,10 +1052,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1071,13 +1078,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1128,7 +1135,7 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>72</v>
@@ -1145,10 +1152,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1171,13 +1178,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1228,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>72</v>
@@ -1245,10 +1252,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1274,10 +1281,10 @@
         <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1328,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>72</v>
@@ -1345,10 +1352,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1374,10 +1381,10 @@
         <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1428,7 +1435,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>72</v>
@@ -1445,10 +1452,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1474,10 +1481,10 @@
         <v>78</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1528,7 +1535,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>72</v>
@@ -1545,10 +1552,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1574,10 +1581,10 @@
         <v>78</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1628,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
@@ -1645,10 +1652,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1674,10 +1681,10 @@
         <v>78</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1728,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>72</v>
@@ -1745,10 +1752,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1771,13 +1778,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1828,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
@@ -1845,10 +1852,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1871,13 +1878,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1904,11 +1911,11 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -1926,7 +1933,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>72</v>
@@ -1943,10 +1950,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1969,13 +1976,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2002,11 +2009,11 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -2024,7 +2031,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
@@ -2041,10 +2048,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2067,13 +2074,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2124,7 +2131,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>72</v>
@@ -2141,10 +2148,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2167,13 +2174,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2200,11 +2207,11 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -2222,7 +2229,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>72</v>
@@ -2239,10 +2246,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2265,13 +2272,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2298,11 +2305,11 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -2320,7 +2327,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>72</v>
@@ -2337,10 +2344,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2363,13 +2370,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2420,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>72</v>
@@ -2437,10 +2444,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2466,10 +2473,10 @@
         <v>78</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2520,7 +2527,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>72</v>
@@ -2537,10 +2544,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2563,13 +2570,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2620,7 +2627,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>72</v>
@@ -2637,10 +2644,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2663,13 +2670,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2696,11 +2703,11 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -2718,7 +2725,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>72</v>
@@ -2735,10 +2742,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2761,13 +2768,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2818,7 +2825,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:54:37+00:00</t>
+    <t>2025-01-07T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T10:22:04+00:00</t>
+    <t>2025-01-08T13:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T13:44:33+00:00</t>
+    <t>2025-01-08T14:12:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:12:29+00:00</t>
+    <t>2025-01-08T14:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:51:23+00:00</t>
+    <t>2025-01-08T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T15:06:16+00:00</t>
+    <t>2025-01-09T10:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T10:44:33+00:00</t>
+    <t>2025-01-09T11:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T11:45:34+00:00</t>
+    <t>2025-01-09T13:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T13:22:59+00:00</t>
+    <t>2025-01-20T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MonitoringLaboratoryResults.xlsx
+++ b/StructureDefinition-MonitoringLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T11:09:19+00:00</t>
+    <t>2025-02-10T09:39:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
